--- a/Data/LoginData.xlsx
+++ b/Data/LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhano\Desktop\eclipse-workspace\SeleniumOperations\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2321BAE-EB18-449D-A65A-97A39D0080DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECDE500-D550-4777-91D7-CCD93D5FCBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
+    <t>testers123@gmail.com</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
@@ -34,12 +40,6 @@
   </si>
   <si>
     <t>wexom38833@ishop2k.com</t>
-  </si>
-  <si>
-    <t>test123</t>
-  </si>
-  <si>
-    <t>testers123@gmail.com</t>
   </si>
   <si>
     <t>testers1234@gmail.com</t>
@@ -49,10 +49,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,13 +89,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -363,37 +380,37 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -401,10 +418,11 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>